--- a/artfynd/A 20632-2019.xlsx
+++ b/artfynd/A 20632-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2645992</v>
+        <v>2277115</v>
       </c>
       <c r="B3" t="n">
-        <v>106706</v>
+        <v>96355</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220204</v>
+        <v>219847</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypochaeris maculata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3759053</v>
+        <v>2645992</v>
       </c>
       <c r="B4" t="n">
-        <v>99397</v>
+        <v>106706</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221235</v>
+        <v>220204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hypochaeris maculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4210768</v>
+        <v>2188622</v>
       </c>
       <c r="B5" t="n">
-        <v>101119</v>
+        <v>104489</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222002</v>
+        <v>219686</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lathraea squamaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1974-07-01</t>
+          <t>1974-05-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1974-08-01</t>
+          <t>1974-05-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5320600</v>
+        <v>3759053</v>
       </c>
       <c r="B6" t="n">
-        <v>98430</v>
+        <v>99397</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222771</v>
+        <v>221235</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4894279</v>
+        <v>4210768</v>
       </c>
       <c r="B7" t="n">
-        <v>101679</v>
+        <v>101119</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3140308</v>
+        <v>5320600</v>
       </c>
       <c r="B8" t="n">
-        <v>103812</v>
+        <v>98430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220785</v>
+        <v>222771</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4973539</v>
+        <v>3759315</v>
       </c>
       <c r="B9" t="n">
-        <v>98519</v>
+        <v>103177</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>221141</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1616,52 +1616,53 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61211127</v>
+        <v>4894279</v>
       </c>
       <c r="B10" t="n">
-        <v>103428</v>
+        <v>101679</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>698</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sen fältgentiana</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Gentianella campestris var. campestris</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ARKIV// Bäck, 80 m NV om gården (*sen fältgent.* /plant/), Upl</t>
+          <t>250 m N om Bäck, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>684116.856165431</v>
+        <v>684459.5640236507</v>
       </c>
       <c r="R10" t="n">
-        <v>6636396.616699145</v>
+        <v>6636170.847812789</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1685,7 +1686,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-08-28</t>
+          <t>1974-07-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1695,7 +1696,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-08-28</t>
+          <t>1974-08-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1703,32 +1704,382 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Igenväxande skog.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>örtrik lövlund</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3140308</v>
+      </c>
+      <c r="B11" t="n">
+        <v>103812</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>220785</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>250 m N om Bäck, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>684459.5640236507</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6636170.847812789</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1974-07-01</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1974-08-01</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>örtrik lövlund</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4973539</v>
+      </c>
+      <c r="B12" t="n">
+        <v>98519</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>250 m N om Bäck, Upl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>684459.5640236507</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6636170.847812789</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>1974-07-01</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>1974-08-01</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>örtrik lövlund</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61211127</v>
+      </c>
+      <c r="B13" t="n">
+        <v>103428</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Behöver inte valideras</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>698</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sen fältgentiana</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Gentianella campestris var. campestris</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ARKIV// Bäck, 80 m NV om gården (*sen fältgent.* /plant/), Upl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>684116.856165431</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6636396.616699145</v>
+      </c>
+      <c r="S13" t="n">
+        <v>50</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2016-08-28</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2016-08-28</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Igenväxande skog.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
           <t>Jan Yngve Andersson</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>Jan Yngve Andersson</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>Floraväkteri Sverige</t>
         </is>
